--- a/songlist_template.xlsx
+++ b/songlist_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code\rdg_maker_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21280243-ADA5-43C9-B648-8E5E374F660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8288968A-73B4-40B5-8BE0-D60B3B7FA934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>YouTube-URL</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>End in Seconds</t>
+  </si>
+  <si>
+    <t>https://youtu.be/eGIdNLh31lY</t>
+  </si>
+  <si>
+    <t>CIX</t>
+  </si>
+  <si>
+    <t>Movie Star</t>
+  </si>
+  <si>
+    <t>Pre-Chorus 1, Chorus 1</t>
+  </si>
+  <si>
+    <t>Requester/Dancer</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
 </sst>
 </file>
@@ -133,22 +151,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E9DF394-F38E-42F5-9D65-F3B6CA6F81A1}" name="Table1" displayName="Table1" ref="A1:J2" totalsRowShown="0">
-  <autoFilter ref="A1:J2" xr:uid="{7E9DF394-F38E-42F5-9D65-F3B6CA6F81A1}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E9DF394-F38E-42F5-9D65-F3B6CA6F81A1}" name="Table1" displayName="Table1" ref="A1:K3" totalsRowShown="0">
+  <autoFilter ref="A1:K3" xr:uid="{7E9DF394-F38E-42F5-9D65-F3B6CA6F81A1}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{38D312AA-BE9C-4788-A1F4-D87247F17353}" name="YouTube-URL"/>
     <tableColumn id="2" xr3:uid="{0D789354-3E81-4A8A-A9B7-ED29E62741CD}" name="Artist"/>
     <tableColumn id="3" xr3:uid="{63BD8FF7-D9E4-4F56-A898-C1BA130B84D7}" name="Title"/>
     <tableColumn id="4" xr3:uid="{2A52E048-F3A1-49AC-8204-3A5423D71A03}" name="Description"/>
+    <tableColumn id="11" xr3:uid="{BCA49706-478A-42FE-8E0C-586922E5D433}" name="Requester/Dancer"/>
     <tableColumn id="5" xr3:uid="{35BD2714-1796-40DB-8877-5475B850B5AE}" name="Start: Minute"/>
     <tableColumn id="6" xr3:uid="{AC17AB3F-82A5-4AA0-A644-C330DB47F9E0}" name="Start: Second"/>
     <tableColumn id="7" xr3:uid="{80998A89-9DB7-4863-B63F-EA9A6EAC4B26}" name="Start in Seconds">
-      <calculatedColumnFormula>E2*60+F2</calculatedColumnFormula>
+      <calculatedColumnFormula>F2*60+G2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{9576EF2E-BBA7-4A3B-8CB2-3A19880745A7}" name="End: Minute"/>
     <tableColumn id="9" xr3:uid="{A528A444-8691-45CF-9C75-5E80A36967D3}" name="End: Seconds"/>
     <tableColumn id="10" xr3:uid="{B2B78805-517A-458E-9E2E-7DC2EE24E374}" name="End in Seconds">
-      <calculatedColumnFormula>H2*60+I2</calculatedColumnFormula>
+      <calculatedColumnFormula>I2*60+J2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -418,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,15 +448,16 @@
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,25 +471,28 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -482,25 +505,65 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>45</v>
       </c>
-      <c r="G2">
-        <f>E2*60+F2</f>
+      <c r="H2">
+        <f>F2*60+G2</f>
         <v>165</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>28</v>
       </c>
-      <c r="J2">
-        <f>H2*60+I2</f>
+      <c r="K2">
+        <f>I2*60+J2</f>
         <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <f>F3*60+G3</f>
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f>I3*60+J3</f>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
